--- a/dill_model/validation_data.xlsx
+++ b/dill_model/validation_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -845,6 +845,486 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-08-17T01:48:59.846Z</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>100</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>-353</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.623952053063787</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.623952053063787</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2025-08-17T01:48:39.231Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-08-17T01:48:59.846Z</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>100</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>300</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.8030035591046117</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.8030035591046117</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>2025-08-17T01:48:44.748Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-08-17T01:48:59.846Z</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>594</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.3868843575081918</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.3868843575081918</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>2025-08-17T01:48:49.363Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-08-17T01:49:37.162Z</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>100</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>-616</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.4918608609704017</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.4918608609704017</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>2025-08-17T01:49:15.397Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-08-17T01:49:37.162Z</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>100</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>648</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.6338884941731017</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.6338884941731017</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>2025-08-17T01:49:19.832Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-08-17T01:49:37.162Z</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>100</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>314</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.7638562564632009</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.7638562564632009</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>2025-08-17T01:49:23.830Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-08-17T01:49:37.162Z</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>100</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>-389</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.4614236026393445</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.4614236026393445</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>2025-08-17T01:49:27.732Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-08-17T01:49:37.162Z</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>100</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>758</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.9124356602780119</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.9124356602780119</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>2025-08-17T01:49:31.746Z</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dill_model/validation_data.xlsx
+++ b/dill_model/validation_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1325,6 +1325,126 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-08-22T01:13:37.393Z</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>100</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>standard</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.321</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.7572600304187821</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.7572600304187821</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>2025-08-22T01:13:17.579Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-08-22T01:13:37.393Z</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>100</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>standard</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.6208479739101637</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.6208479739101637</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>2025-08-22T01:13:25.916Z</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dill_model/validation_data.xlsx
+++ b/dill_model/validation_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1445,6 +1445,5466 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-08-24T09:59:34.272Z</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>100</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>-547</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.3693628262479569</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.3693628262479569</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>2025-08-24T09:58:34.473Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G18" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>378.4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.64136</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.436175</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.514611</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="G19" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.121229</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.353806</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.293574</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="G20" t="n">
+        <v>138.4</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>495.1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.105199</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.523294</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.584458</v>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.719</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="G21" t="n">
+        <v>193.6</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>-261.4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.174197</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.245354</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.164697</v>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="G22" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>58</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.878493</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.011212</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="G23" t="n">
+        <v>179.3</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>123.8</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.6636570000000001</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.636866</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.546031</v>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="G24" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>-638.4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.322379</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.535273</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.56241</v>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="G25" t="n">
+        <v>90</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>698.6</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.618428</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.351454</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.37328</v>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="G26" t="n">
+        <v>106.9</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>783.2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.626472</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.637862</v>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G27" t="n">
+        <v>84.40000000000001</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>-748.6</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.352362</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.784036</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.737584</v>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G28" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.416506</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.215501</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.298411</v>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.529</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="G29" t="n">
+        <v>134.2</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>-379.6</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.567669</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.071608</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.151173</v>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G30" t="n">
+        <v>126.4</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>-654.5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.137693</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.100306</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.877</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="G31" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>-189.4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.8968970000000001</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.225999</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.231822</v>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="G32" t="n">
+        <v>158.1</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>290.7</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.529576</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.501964</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.455329</v>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="G33" t="n">
+        <v>118.1</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>726.1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.800682</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.120229</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.072907</v>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="G34" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>-322.5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.61116</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.027682</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="G35" t="n">
+        <v>166.8</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.100458</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.20428</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.169111</v>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="G36" t="n">
+        <v>174.7</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>-308</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.14634</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.115057</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.190659</v>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.773</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="G37" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>417</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.712668</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.34934</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.275018</v>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:02:26.710744Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G38" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>722.2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.084338</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.843624</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.793283</v>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="G39" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>-458.7</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.051503</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.06852900000000001</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.051573</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.534</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="G40" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>729.7</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.133488</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.218064</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.256017</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="G41" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>608.1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.741915</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.89273</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.983179</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="G42" t="n">
+        <v>208.1</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>-332.5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.408414</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.654415</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.658241</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="G43" t="n">
+        <v>225.8</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>-25</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.651623</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.003521</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="G44" t="n">
+        <v>231</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>284.5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.203114</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.023947</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.022384</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.719</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="G45" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>-559.7</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.129342</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.238494</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>736.5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.6249209999999999</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.339636</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.434203</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G47" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>885.5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.45005</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.164409</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.11944</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="G48" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>-410.5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.440842</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.600886</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.483472</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G49" t="n">
+        <v>125.3</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>-884.6</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.5322210000000001</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.517471</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.5757330000000001</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="G50" t="n">
+        <v>134</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>451.5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.351347</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.171738</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.186074</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="G51" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>322.3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.384899</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.522878</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.396391</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="G52" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>-636.9</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.640339</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.009088000000000001</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="G53" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>233.3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.772049</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.313135</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.230854</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="G54" t="n">
+        <v>221.6</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>432.3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.932395</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.164918</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.145504</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="G55" t="n">
+        <v>221.7</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.173634</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0.00908</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="G56" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.232945</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.442898</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.415838</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="G57" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>891.5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.851728</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.262113</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.272276</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="G58" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>772.9</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.7781169999999999</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0.25723</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.301383</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.851</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="G59" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>599</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.57015</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.727716</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.69646</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G60" t="n">
+        <v>169.7</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>716.9</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.761473</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.079003</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0.07874100000000001</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="G61" t="n">
+        <v>219.6</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>-248.7</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.652053</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.01276</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="G62" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>-574.8</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.929507</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.055058</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.052241</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="G63" t="n">
+        <v>153</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>-236.7</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.879515</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.224225</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.192665</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="G64" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>-200.8</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.146719</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0.687366</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.826303</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G65" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.273572</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.502455</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.502754</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="G66" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>-864.2</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.644184</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.176324</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.173925</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G67" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>704.8</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.248771</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.791539</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.7805609999999999</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="G68" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>144.2</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.933182</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.607444</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.573394</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="G69" t="n">
+        <v>67</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>-151.1</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.432479</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.441312</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.440467</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="G70" t="n">
+        <v>198</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>768.4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.805674</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.257364</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.313831</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="G71" t="n">
+        <v>127.4</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.301369</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.287027</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.362955</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G72" t="n">
+        <v>204.1</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>-700.3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.563007</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.140663</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.135263</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="G73" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>-465.6</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.083801</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.275532</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.205013</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G74" t="n">
+        <v>150.3</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>-824.7</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.89732</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.19353</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.237554</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="G75" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>307.7</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.789617</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0.740421</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.598211</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="G76" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>292.4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.441143</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.437528</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.408674</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="G77" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>416.2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.8713649999999999</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0.225672</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.22027</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="G78" t="n">
+        <v>144.6</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>-380.2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.242036</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0.011184</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G79" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>-751</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.651871</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0.171403</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.138473</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="G80" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>519.9</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.127676</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0.786295</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0.680218</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="G81" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>-626.9</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.465201</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0.559373</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.609878</v>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="G82" t="n">
+        <v>209.7</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>-476.8</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.438171</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0.026987</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0.020339</v>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="G83" t="n">
+        <v>203.1</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>566.4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.10216</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0.500479</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0.627912</v>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="G84" t="n">
+        <v>202.7</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.740679</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0.3655</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0.442943</v>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G85" t="n">
+        <v>110.9</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>227</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.811853</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0.684486</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0.715282</v>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="G86" t="n">
+        <v>107.1</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>465.9</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.631944</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0.560477</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0.626363</v>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="G87" t="n">
+        <v>161.2</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>442</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.228853</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.41887</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.310954</v>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="G88" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>702.6</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.934788</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0.509375</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0.367389</v>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="G89" t="n">
+        <v>177.9</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>504.2</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.378968</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0.749019</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0.898993</v>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="G90" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>-797.8</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.279366</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0.492128</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0.465774</v>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="G91" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.9276450000000001</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.304119</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0.358723</v>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="G92" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>-477</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.134212</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0.356557</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0.271181</v>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="G93" t="n">
+        <v>224.7</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>-254.2</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.656679</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0.002231</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="G94" t="n">
+        <v>207.7</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>-666.6</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.812457</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0.505763</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0.435768</v>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G95" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>-857.1</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0.76211</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0.734158</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0.7546850000000001</v>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G96" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>175.4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.755858</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0.734556</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0.591354</v>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="G97" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.43045</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.339284</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0.400484</v>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="G98" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>-787.1</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.570461</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0.2022</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0.210613</v>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="G99" t="n">
+        <v>110.3</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>800.7</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0.826169</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0.5226499999999999</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0.38547</v>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G100" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>-618.9</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0.629441</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0.06637899999999999</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0.07489899999999999</v>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="G101" t="n">
+        <v>165.4</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>-299.2</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0.214196</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0.003701</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="G102" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>545.2</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0.172345</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0.26735</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0.280781</v>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="G103" t="n">
+        <v>120.4</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>-568.7</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0.526226</v>
+      </c>
+      <c r="T103" t="n">
+        <v>0.380745</v>
+      </c>
+      <c r="U103" t="n">
+        <v>0.392109</v>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G104" t="n">
+        <v>162.9</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>-640.8</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0.733002</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0.000844</v>
+      </c>
+      <c r="U104" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="G105" t="n">
+        <v>212.1</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>-37.1</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0.384497</v>
+      </c>
+      <c r="T105" t="n">
+        <v>0.250461</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0.245261</v>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="G106" t="n">
+        <v>153.8</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>155.7</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0.757487</v>
+      </c>
+      <c r="T106" t="n">
+        <v>0.036633</v>
+      </c>
+      <c r="U106" t="n">
+        <v>0.029362</v>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>dill</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="G107" t="n">
+        <v>111.9</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>cumulative</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>-141.5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0.209482</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0.360783</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0.394835</v>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>2025-08-24T18:04:06.075041Z</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
